--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/15/seed4/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.26</v>
+        <v>16.413</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.514</v>
+        <v>16.379</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.084</v>
+        <v>-12.661</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -550,13 +550,13 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.44</v>
+        <v>5.865</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.592000000000001</v>
+        <v>-7.968999999999999</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-22.118</v>
+        <v>-21.881</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.404</v>
+        <v>-8.415000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.456</v>
+        <v>5.782999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -658,10 +658,10 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.026000000000001</v>
+        <v>-7.833</v>
       </c>
       <c r="E13" t="n">
-        <v>17.094</v>
+        <v>16.616</v>
       </c>
     </row>
     <row r="14">
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.944</v>
+        <v>6.229</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.13</v>
+        <v>-12.909</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.484</v>
+        <v>-8.657</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.842</v>
+        <v>-21.993</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.62</v>
+        <v>-20.931</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.75</v>
+        <v>-7.874</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.23</v>
+        <v>-7.547</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.332</v>
+        <v>5.879</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.314</v>
+        <v>-21.611</v>
       </c>
       <c r="B27" t="n">
-        <v>7.19</v>
+        <v>6.446000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.49</v>
+        <v>16.737</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.236</v>
+        <v>5.566</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.01</v>
+        <v>17.108</v>
       </c>
     </row>
     <row r="30">
@@ -995,7 +995,7 @@
         <v>6.69</v>
       </c>
       <c r="C33" t="n">
-        <v>-11.594</v>
+        <v>-11.314</v>
       </c>
       <c r="D33" t="n">
         <v>-6.63</v>
@@ -1023,19 +1023,19 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-20.774</v>
+        <v>-20.569</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.386</v>
+        <v>-12.357</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>15.718</v>
+        <v>16.204</v>
       </c>
     </row>
     <row r="36">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>7.368</v>
+        <v>8.270000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,10 +1077,10 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.296</v>
+        <v>4.83</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.456</v>
+        <v>-12.595</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.038</v>
+        <v>-7.634</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>16.526</v>
+        <v>16.618</v>
       </c>
     </row>
     <row r="41">
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.076</v>
+        <v>-12.494</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.108</v>
+        <v>-12.008</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1233,10 +1233,10 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.638</v>
+        <v>-11.418</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.023999999999999</v>
+        <v>-7.192</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.314</v>
+        <v>-7.228999999999999</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.351999999999999</v>
+        <v>5.824</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.656</v>
+        <v>-12.418</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,13 +1315,13 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>6.644</v>
+        <v>5.478</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.407999999999999</v>
+        <v>-7.668000000000001</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>7.155999999999999</v>
+        <v>6.403</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.968000000000001</v>
+        <v>-7.825</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1403,13 +1403,13 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.314</v>
+        <v>-12.742</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.74</v>
+        <v>16.844</v>
       </c>
     </row>
     <row r="58">
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-10.992</v>
+        <v>-11.796</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.854</v>
+        <v>-21.701</v>
       </c>
       <c r="B69" t="n">
-        <v>5.45</v>
+        <v>6.616</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,10 +1621,10 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.215999999999999</v>
+        <v>6.114</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.64</v>
+        <v>-11.567</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.988</v>
+        <v>-20.738</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.872</v>
+        <v>-20.609</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.686000000000001</v>
+        <v>6.154</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.86</v>
+        <v>-21.837</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.308</v>
+        <v>-20.61</v>
       </c>
       <c r="B83" t="n">
-        <v>7.63</v>
+        <v>7.384</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.294</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1885,7 +1885,7 @@
         <v>-7.87</v>
       </c>
       <c r="E85" t="n">
-        <v>16.572</v>
+        <v>16.485</v>
       </c>
     </row>
     <row r="86">
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-11.42</v>
+        <v>-12.583</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22.142</v>
+        <v>-22.021</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-13.16</v>
+        <v>-12.399</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.714000000000002</v>
+        <v>-8.311000000000002</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.982000000000001</v>
+        <v>-7.831</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.7</v>
+        <v>7.402999999999999</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
